--- a/Final_Project/Dataset_150.xlsx
+++ b/Final_Project/Dataset_150.xlsx
@@ -40,10 +40,10 @@
     <t>ChatGPT</t>
   </si>
   <si>
-    <t>If a star is 1,000 light-years away, it means that the light emitted from the star takes 1,000 years to travel from the star to Earth. Therefore, light emitted by the star today will take 1,000 years to reach Earth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a star is 10 million km from Earth, how many years would it take for its light to reach us? </t>
+    <t xml:space="preserve"> a star is 1,000 light-years away, it means that the light emitted from the star takes 1,000 years to travel from the star to Earth. Therefore, light emitted by the star today will take 1,000 years to reach Earth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A star is 10 million km from Earth, how many years would it take for its light to reach us? </t>
   </si>
   <si>
     <t>Stars are much farther away; the nearest star, Proxima Centauri, is ~4.24 light-years away.</t>
@@ -52,7 +52,7 @@
     <t>It takes approximately 33.36 seconds for light from the star to reach Earth, which corresponds to about 0.00000106 years, or roughly 1.06 microseconds</t>
   </si>
   <si>
-    <t>If the Sun emits 100 joules of energy per second, how much energy does it emit in 1 day?</t>
+    <t xml:space="preserve"> The Sun emits 100 joules of energy per second, how much energy does it emit in 1 day?</t>
   </si>
   <si>
     <t>The Sun emits 3.846×10^26 watts, far more than 100 joules/second.</t>
@@ -67,13 +67,13 @@
     <t>A star's luminosity is far greater than 10 watts; typical values are in the range of 10^26 watts or more.</t>
   </si>
   <si>
-    <t>If the Milky Way is 10,000 light-years across, how long would it take light to travel from one end to the other?</t>
+    <t xml:space="preserve"> The Milky Way is 10,000 light-years across, how long would it take light to travel from one end to the other?</t>
   </si>
   <si>
     <t>he Milky Way is ~105,000 light-years across, not 10,000 light-years.</t>
   </si>
   <si>
-    <t>If the Milky Way is 10,000 light-years across, it would take light exactly 10,000 years to travel from one end to the other.</t>
+    <t xml:space="preserve"> the Milky Way is 10,000 light-years across, it would take light exactly 10,000 years to travel from one end to the other.</t>
   </si>
   <si>
     <t xml:space="preserve">A galaxy moves away from Earth at 300,000 km/s. How far is it after 1 hour? </t>
@@ -85,7 +85,7 @@
     <t>After 1 hour, a galaxy moving away from Earth at a speed of 300,000 km/s will have traveled a distance of 1,080,000,000 kilometers.</t>
   </si>
   <si>
-    <t>If a galaxy contains 1 billion stars, how many stars does the observable universe contain if there are 10 million galaxies?</t>
+    <t xml:space="preserve"> A galaxy contains 1 billion stars, how many stars does the observable universe contain  there are 10 million galaxies?</t>
   </si>
   <si>
     <t>The Milky Way alone has ~100–400 billion stars, and the observable universe contains ~2 trillion galaxies.</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">The observable universe contains approximately 10 quadrillion stars, given there are 1 billion stars in each of 10 million galaxies. </t>
   </si>
   <si>
-    <t>If a galaxy rotates once every 1,000 years, how many rotations has it completed in 1 million years?</t>
+    <t>A galaxy rotates once every 1,000 years, how many rotations has it completed in 1 million years?</t>
   </si>
   <si>
     <t>Galaxies take hundreds of millions of years to complete one rotation, not 1,000 years.</t>
@@ -103,7 +103,7 @@
     <t>The galaxy has completed 1,000 rotations in 1 million years.</t>
   </si>
   <si>
-    <t>If a black hole has a mass of 10 kg, what is its Schwarzschild radius?</t>
+    <t>A black hole has a mass of 10 kg, what is its Schwarzschild radius?</t>
   </si>
   <si>
     <t>A black hole cannot exist with such a small mass; the smallest stellar black holes are ~3 solar masses.</t>
@@ -121,7 +121,7 @@
     <t>It would take approximately 10 years for light to travel from 10 light-years away to the black hole.</t>
   </si>
   <si>
-    <t>If a black hole emits 1,000 joules of Hawking radiation per second, how much energy does it emit in 1 year?</t>
+    <t>A black hole emits 1,000 joules of Hawking radiation per second, how much energy does it emit in 1 year?</t>
   </si>
   <si>
     <t>Black holes emit negligible Hawking radiation, far less than 1,000 joules/second.</t>
@@ -130,7 +130,7 @@
     <t>The black hole emits 31.54 billion joules (or 31.54 × 10^9 joules) of Hawking radiation in 1 year.</t>
   </si>
   <si>
-    <t>A star collapses into a black hole in 1 second. If its mass is 1,000 times that of the Sun, what is its escape velocity?</t>
+    <t>A star collapses into a black hole in 1 second.  its mass is 1,000 times that of the Sun, what is its escape velocity?</t>
   </si>
   <si>
     <t>The mass is far beyond the range of stellar black holes and suggests an unrealistic formation process.</t>
@@ -139,7 +139,7 @@
     <t>The escape velocity of the black hole is approximately 9.49 × 10⁷ m/s (or 94,900 km/s). This is about 1/3 of the speed of light.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a black hole’s event horizon is 10 meters across, what is its mass? </t>
+    <t xml:space="preserve">A black hole’s event horizon is 10 meters across, what is its mass? </t>
   </si>
   <si>
     <t>Such a small event horizon would correspond to an unrealistic black hole mass, far smaller than any known.)</t>
@@ -148,7 +148,7 @@
     <t>The mass of the black hole is approximately 3.37×10^27kg.</t>
   </si>
   <si>
-    <t xml:space="preserve">If the universe is 20 billion years old, how far is the farthest observable galaxy? </t>
+    <t xml:space="preserve">The universe is 20 billion years old, how far is the farthest observable galaxy? </t>
   </si>
   <si>
     <t>The universe is ~13.8 billion years old, not 20 billion.</t>
@@ -169,7 +169,7 @@
     <t>Biology</t>
   </si>
   <si>
-    <t>If a human heart beats 60 times per minute, how many liters of blood does it pump in an hour if it pumps 70 liters per beat?</t>
+    <t>A human heart beats 60 times per minute, how many liters of blood does it pump in an hour  it pumps 70 liters per beat?</t>
   </si>
   <si>
     <t>Unrealistic blood volume per beat.</t>
@@ -181,10 +181,10 @@
     <t>The heart would pump 252 liters of blood in an hour at this rate.</t>
   </si>
   <si>
-    <t>If a person consumes 2000 calories a day, how many calories are burned by blinking 100 times per hour for 24 hours?</t>
-  </si>
-  <si>
-    <t>Blinking does not consume significant calories.</t>
+    <t>A person consumes 2000 calories a day, how many calories are burned by blinking 100 times per hour for 24 hours?</t>
+  </si>
+  <si>
+    <t>Blinking does not consume signicant calories.</t>
   </si>
   <si>
     <t>Thus, blinking 100 times per hour for 24 hours burns approximately 1.2 calories, which is a very small fraction of daily calorie expenditure.</t>
@@ -199,7 +199,7 @@
     <t>This means after one hour, the number of cells would be 2^60, , a very large number.</t>
   </si>
   <si>
-    <t>If a cheetah runs at 120 km/h and a gazelle at 60 km/h, how many seconds does it take for the cheetah to catch a gazelle 1 km away?</t>
+    <t>A cheetah runs at 120 km/h and a gazelle at 60 km/h, how many seconds does it take for the cheetah to catch a gazelle 1 km away?</t>
   </si>
   <si>
     <t>Assumes constant speed and ignores acceleration.</t>
@@ -208,19 +208,19 @@
     <t>Therefore, it takes the cheetah 60 seconds to catch up to the gazelle, given that it is initially 1 kilometer away.</t>
   </si>
   <si>
-    <t>The average adult human body contains 100 trillion cells. If each cell loses 1% of its mass daily, how much body mass does a person lose in a week?</t>
-  </si>
-  <si>
-    <t>Cell mass doesn’t uniformly decrease.</t>
-  </si>
-  <si>
-    <t>Therefore, a person would lose approximately 4.76 kilograms of body mass in a week if each cell loses 1% of its mass daily, with the calculation taking into account the compounding nature of mass loss.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a tree absorbs 48 kg of carbon dioxide annually, how many kilograms of oxygen does it release in a day? </t>
-  </si>
-  <si>
-    <t>Oversimplifies photosynthesis calculations.</t>
+    <t>The average adult human body contains 100 trillion cells.  each cell loses 1% of its mass daily, how much body mass does a person lose in a week?</t>
+  </si>
+  <si>
+    <t>Cell mass doesn’t unormly decrease.</t>
+  </si>
+  <si>
+    <t>Therefore, a person would lose approximately 4.76 kilograms of body mass in a week  each cell loses 1% of its mass daily, with the calculation taking into account the compounding nature of mass loss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tree absorbs 48 kg of carbon dioxide annually, how many kilograms of oxygen does it release in a day? </t>
+  </si>
+  <si>
+    <t>Oversimplies photosynthesis calculations.</t>
   </si>
   <si>
     <t>Thus, a tree that absorbs 48 kg of carbon dioxide annually releases about 0.0956 kg (or approximately 95.6 grams) of oxygen each day.</t>
@@ -235,7 +235,7 @@
     <t>Therefore, a whale produces 18,250 liters of milk in a year.</t>
   </si>
   <si>
-    <t>If a mosquito drinks 0.01 mL of blood per bite, how many bites are required to drain 5 liters of blood from a human?</t>
+    <t>A mosquito drinks 0.01 mL of blood per bite, how many bites are required to drain 5 liters of blood from a human?</t>
   </si>
   <si>
     <t>Ignores biological impossibilities of blood loss tolerance.</t>
@@ -244,7 +244,7 @@
     <t>Thus, it would require 500,000 mosquito bites to drain 5 liters of blood.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a person breathes 10 times per minute and inhales 0.5 liters of air per breath, how many liters of oxygen does the person inhale in 24 hours? </t>
+    <t xml:space="preserve">A person breathes 10 times per minute and inhales 0.5 liters of air per breath, how many liters of oxygen does the person inhale in 24 hours? </t>
   </si>
   <si>
     <t>Assumes air is entirely oxygen and neglects oxygen absorption efficiency.</t>
@@ -253,7 +253,7 @@
     <t>Therefore, a person inhales approximately 1512 liters of oxygen in 24 hours, assuming they breathe 10 times per minute and inhale 0.5 liters of air per breath.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a sunflower grows 2 cm per day, how tall will it be after 200 days? </t>
+    <t xml:space="preserve">A sunflower grows 2 cm per day, how tall will it be after 200 days? </t>
   </si>
   <si>
     <t>Assumes linear growth, ignoring biological limits.</t>
@@ -262,7 +262,7 @@
     <t>Thus, the sunflower will be 400 cm tall after 200 days of growth at a rate of 2 cm per day.</t>
   </si>
   <si>
-    <t>If a human body produces 100 million new cells every minute, how many new cells are produced in a year?</t>
+    <t>A human body produces 100 million new cells every minute, how many new cells are produced in a year?</t>
   </si>
   <si>
     <t>Unrealistically high rate of cell division.</t>
@@ -271,7 +271,7 @@
     <t>Therefore, the human body produces approximately 52.56 trillion new cells in a year at the rate of 100 million new cells every minute.</t>
   </si>
   <si>
-    <t xml:space="preserve">If an elephant’s heart weighs 20 kg and beats 25 times per minute, how many kilograms of blood does it pump in a day? </t>
+    <t xml:space="preserve">An elephant’s heart weighs 20 kg and beats 25 times per minute, how many kilograms of blood does it pump in a day? </t>
   </si>
   <si>
     <t>Unrealistic relationship between heart weight and blood volume.</t>
@@ -280,7 +280,7 @@
     <t>Therefore, an elephant’s heart pumps approximately 486,000 kilograms of blood in a day, assuming it beats 25 times per minute and pumps 13.5 liters of blood with each beat.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a hummingbird flaps its wings 80 times per second, how many times does it flap its wings in a day? </t>
+    <t xml:space="preserve">A hummingbird flaps its wings 80 times per second, how many times does it flap its wings in a day? </t>
   </si>
   <si>
     <t>Ignores rest periods and biological limits.</t>
@@ -289,7 +289,7 @@
     <t>Therefore, a hummingbird flaps its wings approximately 6,912,000 times in a day, assuming it maintains a constant rate of 80 flaps per second throughout the entire day.</t>
   </si>
   <si>
-    <t>If a human loses 1 liter of water per hour through sweating, how many liters will they lose in a 10-hour marathon?</t>
+    <t>A human loses 1 liter of water per hour through sweating, how many liters will they lose in a 10-hour marathon?</t>
   </si>
   <si>
     <t>Overestimates sweat loss without considering physiological adaptations.</t>
@@ -298,7 +298,7 @@
     <t>Thus, a person will lose 10 liters of water through sweating over the course of a 10-hour marathon.</t>
   </si>
   <si>
-    <t>If a newborn baby has 301 bones and loses 94 of them by adulthood, how many bones does an adult have?</t>
+    <t>A newborn baby has 301 bones and loses 94 of them by adulthood, how many bones does an adult have?</t>
   </si>
   <si>
     <t>Misrepresents bone fusion during development.</t>
@@ -307,16 +307,16 @@
     <t>Therefore, an adult has 207 bones after the fusion of certain bones that occurs as a baby grows into adulthood.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a rabbit population doubles every month starting with 2 rabbits, how many rabbits will there be after a year? </t>
+    <t xml:space="preserve">A rabbit population doubles every month starting with 2 rabbits, how many rabbits will there be after a year? </t>
   </si>
   <si>
     <t>Exponential growth without resource limits.</t>
   </si>
   <si>
-    <t>Therefore, there will be 8,192 rabbits after one year if the population doubles every month starting with 2 rabbits.</t>
-  </si>
-  <si>
-    <t>If a bacterial colony grows at a rate of 100 cells per minute, how many cells will there be after 24 hours?</t>
+    <t>Therefore, there will be 8,192 rabbits after one year  the population doubles every month starting with 2 rabbits.</t>
+  </si>
+  <si>
+    <t>A bacterial colony grows at a rate of 100 cells per minute, how many cells will there be after 24 hours?</t>
   </si>
   <si>
     <t>Ignores constraints like space, nutrients, or waste buildup.</t>
@@ -325,7 +325,7 @@
     <t>Therefore, after 24 hours, the bacterial colony will have grown by 144,000 cells.</t>
   </si>
   <si>
-    <t>If a single pair of mice produces 10 offspring every month, how many mice will there be after 2 years?</t>
+    <t>A single pair of mice produces 10 offspring every month, how many mice will there be after 2 years?</t>
   </si>
   <si>
     <t>Ignores survival rates and resource limitations.</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Therefore, the population would be approximately 146.7 trillion after 1,000 years, assuming a consistent annual growth rate of 1% and no other changes in population dynamics. </t>
   </si>
   <si>
-    <t>If an animal requires 2 kg of food daily, how much food is needed to sustain a population of 1,000 animals for a year?</t>
+    <t>An animal requires 2 kg of food daily, how much food is needed to sustain a population of 1,000 animals for a year?</t>
   </si>
   <si>
     <t>Ignores food chain dynamics and energy efficiency.</t>
@@ -352,25 +352,25 @@
     <t>Thus, 730,000 kilograms of food are needed to sustain a population of 1,000 animals for one year.</t>
   </si>
   <si>
-    <t>If a DNA molecule replicates at a rate of 1,000 base pairs per second, how many base pairs are replicated in a year?</t>
-  </si>
-  <si>
-    <t>Ignores cellular replication processes and organism lifecycles.</t>
+    <t>A DNA molecule replicates at a rate of 1,000 base pairs per second, how many base pairs are replicated in a year?</t>
+  </si>
+  <si>
+    <t>Ignores cellular replication processes and organism lecycles.</t>
   </si>
   <si>
     <t>Therefore, a DNA molecule replicates 31.536 billion base pairs in a year, given a replication rate of 1,000 base pairs per second.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a single gene mutation occurs in every 1 billion base pairs, how many mutations are present in a genome of 3 billion base pairs? </t>
-  </si>
-  <si>
-    <t>Oversimplifies mutation frequency.</t>
+    <t xml:space="preserve">A single gene mutation occurs in every 1 billion base pairs, how many mutations are present in a genome of 3 billion base pairs? </t>
+  </si>
+  <si>
+    <t>Oversimplies mutation frequency.</t>
   </si>
   <si>
     <t>Therefore, a genome of 3 billion base pairs is expected to have 3 mutations, assuming a mutation rate of one mutation per 1 billion base pairs.</t>
   </si>
   <si>
-    <t>If a fruit fly has 8 chromosomes and produces 1,000 offspring, how many chromosomes are present in all the offspring combined?</t>
+    <t>A fruit fly has 8 chromosomes and produces 1,000 offspring, how many chromosomes are present in all the offspring combined?</t>
   </si>
   <si>
     <t>Misunderstands genetic inheritance.</t>
@@ -379,16 +379,16 @@
     <t>Thus, there are a total of 8,000 chromosomes in all 1,000 offspring combined, assuming each offspring has the same number of chromosomes as the parent, which is 8.</t>
   </si>
   <si>
-    <t>If a human produces 100 sperm cells per second, how many sperm cells are produced in a lifetime?</t>
+    <t>A human produces 100 sperm cells per second, how many sperm cells are produced in a letime?</t>
   </si>
   <si>
     <t>Ignores variations in sperm production rates over time.</t>
   </si>
   <si>
-    <t xml:space="preserve">Thus, if a human male produces sperm at a rate of 100 sperm cells per second continuously from the age of 13 to 70, he would produce approximately 179.73 billion sperm cells in his lifetime. </t>
-  </si>
-  <si>
-    <t>If one parent has a dominant gene and the other has a recessive gene, how many offspring out of 4 will express the recessive trait?</t>
+    <t xml:space="preserve">Thus,  a human male produces sperm at a rate of 100 sperm cells per second continuously from the age of 13 to 70, he would produce approximately 179.73 billion sperm cells in his letime. </t>
+  </si>
+  <si>
+    <t>One parent has a dominant gene and the other has a recessive gene, how many offspring out of 4 will express the recessive trait?</t>
   </si>
   <si>
     <t>Assumes perfect Mendelian inheritance in small samples.</t>
@@ -397,16 +397,16 @@
     <t>Out of 4 offspring, 2 will express the recessive trait when one parent is heterozygous dominant (Aa) and the other is homozygous recessive (aa). Thus, 50% of the offspring will exhibit the recessive phenotype.</t>
   </si>
   <si>
-    <t>If one tree absorbs 1 ton of carbon dioxide in 10 years, how many tons will 1,000 trees absorb in a year?</t>
-  </si>
-  <si>
-    <t>Oversimplifies absorption rates.</t>
+    <t>One tree absorbs 1 ton of carbon dioxide in 10 years, how many tons will 1,000 trees absorb in a year?</t>
+  </si>
+  <si>
+    <t>Oversimplies absorption rates.</t>
   </si>
   <si>
     <t>Thus, 1,000 trees will absorb 100 tons of carbon dioxide in one year, assuming each tree continues to absorb CO2 at the same rate calculated for a single tree over 10 years.</t>
   </si>
   <si>
-    <t>If a forest supports 100 species and 1 species goes extinct every year, how many species will remain after 200 years?</t>
+    <t>A forest supports 100 species and 1 species goes extinct every year, how many species will remain after 200 years?</t>
   </si>
   <si>
     <t>Ignores ecological interdependence.</t>
@@ -415,7 +415,7 @@
     <t>The result is -100 species</t>
   </si>
   <si>
-    <t>If a lake evaporates at a rate of 1 cm per day, how many meters deep will it be after 1,000 days?</t>
+    <t>A lake evaporates at a rate of 1 cm per day, how many meters deep will it be after 1,000 days?</t>
   </si>
   <si>
     <t>Ignores inflow or seasonal changes.</t>
@@ -424,16 +424,16 @@
     <t xml:space="preserve">Thus, the lake would have evaporated 10 meters deep after 1,000 days at an evaporation rate of 1 cm per day. </t>
   </si>
   <si>
-    <t>If one bee visits 1,000 flowers a day, how many flowers are pollinated by 1,000 bees in a year?</t>
+    <t>One bee visits 1,000 flowers a day, how many flowers are pollinated by 1,000 bees in a year?</t>
   </si>
   <si>
     <t>Assumes perfect pollination efficiency.</t>
   </si>
   <si>
-    <t>Therefore, 1,000 bees will pollinate 365 million flowers in a year if each bee visits 1,000 flowers each day.</t>
-  </si>
-  <si>
-    <t>If a predator eats 10 prey animals per week, how many prey animals will survive after 1 year in a population of 1,000?</t>
+    <t>Therefore, 1,000 bees will pollinate 365 million flowers in a year  each bee visits 1,000 flowers each day.</t>
+  </si>
+  <si>
+    <t>A predator eats 10 prey animals per week, how many prey animals will survive after 1 year in a population of 1,000?</t>
   </si>
   <si>
     <t>Ignores prey reproduction and predator-prey dynamics.</t>
@@ -442,7 +442,7 @@
     <t>480 prey animals will survive after 1 year.</t>
   </si>
   <si>
-    <t>If a tree grows 10 rings per year, how old is a tree with 500 rings?</t>
+    <t>A tree grows 10 rings per year, how old is a tree with 500 rings?</t>
   </si>
   <si>
     <t>Misinterprets growth rings.</t>
@@ -451,16 +451,16 @@
     <t>The tree is 50 years old.</t>
   </si>
   <si>
-    <t>If a plant absorbs 10 liters of water daily, how much water does it absorb in its lifetime of 50 years?</t>
+    <t>A plant absorbs 10 liters of water daily, how much water does it absorb in its letime of 50 years?</t>
   </si>
   <si>
     <t>Unrealistically assumes constant absorption rate.</t>
   </si>
   <si>
-    <t>The plant absorbs 182,620 liters of water in its lifetime of 50 years.</t>
-  </si>
-  <si>
-    <t>If a sunflower absorbs 5 grams of carbon daily, how much carbon does it absorb in a decade?</t>
+    <t>The plant absorbs 182,620 liters of water in its letime of 50 years.</t>
+  </si>
+  <si>
+    <t>A sunflower absorbs 5 grams of carbon daily, how much carbon does it absorb in a decade?</t>
   </si>
   <si>
     <t xml:space="preserve"> Ignores variations in growth stages.</t>
@@ -469,16 +469,16 @@
     <t>The sunflower absorbs 18,260 grams (18.26 kilograms) of carbon in a decade.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a plant releases 1 liter of oxygen per hour, how much oxygen does it release in a month? </t>
-  </si>
-  <si>
-    <t>Oversimplifies photosynthesis dynamics.</t>
+    <t xml:space="preserve">A plant releases 1 liter of oxygen per hour, how much oxygen does it release in a month? </t>
+  </si>
+  <si>
+    <t>Oversimplies photosynthesis dynamics.</t>
   </si>
   <si>
     <t>The plant releases approximately 730.56 liters of oxygen in a month.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a seed takes 5 days to germinate, how many seeds germinate in 100 days? </t>
+    <t xml:space="preserve">A seed takes 5 days to germinate, how many seeds germinate in 100 days? </t>
   </si>
   <si>
     <t>Misinterprets germination as cumulative.</t>
@@ -499,7 +499,7 @@
     <t>This solution with a pH of −3-3−3 would have an extremely low hydroxide ion concentration of 10−17 mol/L10^{-17} \, \text{mol/L}10−17mol/L, which is far below what is typically encountered in aqueous systems.</t>
   </si>
   <si>
-    <t>If 2 moles of hydrogen gas react with 1 mole of oxygen gas, how many moles of water are produced at STP? (Assume the volume of gases changes during the reaction).</t>
+    <t xml:space="preserve"> 2 moles of hydrogen gas react with 1 mole of oxygen gas, how many moles of water are produced at STP? (Assume the volume of gases changes during the reaction).</t>
   </si>
   <si>
     <t>This question is faulty because it incorrectly implies that the volume of gases affects the stoichiometry of the chemical reaction, whereas the reaction produces 2 moles of water regardless of volume changes under ideal conditions.</t>
@@ -526,16 +526,16 @@
     <t>The speed of sound in water is approximately 1480 m/s.</t>
   </si>
   <si>
-    <t>A 100 g sample of water is heated by 50°C. How much energy is absorbed if the specific heat capacity of water is 0.5 J/g·°C?</t>
-  </si>
-  <si>
-    <t>This question is faulty because it provides an incorrect value for the specific heat capacity of water, which is typically 4.18 J/g·°C, leading to an inaccurate energy calculation.</t>
+    <t>A 100 g sample of water is heated by 50°C. How much energy is absorbed  the specic heat capacity of water is 0.5 J/g·°C?</t>
+  </si>
+  <si>
+    <t>This question is faulty because it provides an incorrect value for the specic heat capacity of water, which is typically 4.18 J/g·°C, leading to an inaccurate energy calculation.</t>
   </si>
   <si>
     <t>The energy absorbed by the 100 g sample of water is 2500 joules.</t>
   </si>
   <si>
-    <t>If 1 mole of NaCl dissolves in water, how many atoms are produced in total?</t>
+    <t xml:space="preserve"> 1 mole of NaCl dissolves in water, how many atoms are produced in total?</t>
   </si>
   <si>
     <t>This question is faulty because it incorrectly implies that dissolving NaCl produces atoms, whereas it actually dissociates into ions (Na⁺ and Cl⁻), and the total number of particles depends on Avogadro's number, not individual atoms.</t>
@@ -553,7 +553,7 @@
     <t>The energy required to break 2 moles of H2\text{H}_2H2 molecules completely is 872 kJ.</t>
   </si>
   <si>
-    <t>The atomic number of helium is 2. What is its neutron number if its atomic mass is 2 g/mol?</t>
+    <t>The atomic number of helium is 2. What is its neutron number  its atomic mass is 2 g/mol?</t>
   </si>
   <si>
     <t>This question is faulty because the atomic mass of helium is approximately 4 g/mol, not 2 g/mol, and helium with an atomic mass of 4 has 2 neutrons, not 0 as implied by the incorrect atomic mass.</t>
@@ -562,7 +562,7 @@
     <t>The neutron number of helium is 0. Helium-2 (with an atomic mass of 2 g/mol) does not exist naturally, and helium-3 (with an atomic mass of 3) is the common isotope of helium with 1 neutron.</t>
   </si>
   <si>
-    <t>A reaction produces 10 L of CO₂ gas at STP. How many grams of CO₂ are formed if its molar mass is 12 g/mol?</t>
+    <t>A reaction produces 10 L of CO₂ gas at STP. How many grams of CO₂ are formed  its molar mass is 12 g/mol?</t>
   </si>
   <si>
     <t>This question is faulty because it provides an incorrect molar mass for CO₂, which is 44 g/mol (not 12 g/mol), leading to an incorrect mass calculation.</t>
@@ -583,16 +583,16 @@
     <t>The molar volume of a gas at STP is 22.4 L. What is the volume of 0.5 moles of oxygen gas?</t>
   </si>
   <si>
-    <t>This question is faulty because it does not clarify that the molar volume of a gas at STP applies to ideal gases, and oxygen gas (O₂) closely follows ideal behavior, making the calculation straightforward as \( 0.5 \times 22.4 = 11.2 \, \text{L} \). However, the question might confuse learners if not explicitly stated to assume ideal gas behavior.</t>
+    <t>This question is faulty because it does not clary that the molar volume of a gas at STP applies to ideal gases, and oxygen gas (O₂) closely follows ideal behavior, making the calculation straightforward as \( 0.5 \times 22.4 = 11.2 \, \text{L} \). However, the question might confuse learners  not explicitly stated to assume ideal gas behavior.</t>
   </si>
   <si>
     <t>The volume of 0.5 moles of oxygen gas at STP is 11.2 liters.</t>
   </si>
   <si>
-    <t>If 1 gram of uranium-235 produces 1 kJ of energy, how much energy is released by 10 grams of uranium-235 during a nuclear reaction?</t>
-  </si>
-  <si>
-    <t>This question is faulty because it significantly underestimates the energy released by uranium-235 in a nuclear reaction; 1 gram of uranium-235 releases approximately \( 8 \times 10^{10} \) joules, not just 1 kJ, making the premise unrealistic.</t>
+    <t xml:space="preserve"> 1 gram of uranium-235 produces 1 kJ of energy, how much energy is released by 10 grams of uranium-235 during a nuclear reaction?</t>
+  </si>
+  <si>
+    <t>This question is faulty because it signicantly underestimates the energy released by uranium-235 in a nuclear reaction; 1 gram of uranium-235 releases approximately \( 8 \times 10^{10} \) joules, not just 1 kJ, making the premise unrealistic.</t>
   </si>
   <si>
     <t>The energy released by 10 grams of uranium-235 during a nuclear reaction is 10 kJ.</t>
@@ -607,7 +607,7 @@
     <t>Therefore, compressing a gas (decreasing its volume) while keeping the pressure constant leads to an increase in temperature because the gas molecules' kinetic energy increases. This relationship underlies why compressed gases can become warmer during compression.</t>
   </si>
   <si>
-    <t>If 1 mole of helium has a mass of 4 g, what is the mass of 2 moles of helium atoms?</t>
+    <t xml:space="preserve"> 1 mole of helium has a mass of 4 g, what is the mass of 2 moles of helium atoms?</t>
   </si>
   <si>
     <t>Assumes the mass doubles without considering that helium atoms are monatomic and this distinction is irrelevant.</t>
@@ -628,7 +628,7 @@
     <t>Therefore, the molar mass of this atom (Neon) is approximately 20 g/mol.</t>
   </si>
   <si>
-    <t>If the mass of a proton is 1.672×10−27 kg,  what is the total mass of 1 mole of protons?</t>
+    <t>The mass of a proton is 1.672×10−27 kg,  what is the total mass of 1 mole of protons?</t>
   </si>
   <si>
     <t>Ignores the relationship between amu and kilograms, leading to confusion.</t>
@@ -637,7 +637,7 @@
     <t>Therefore, the total mass of 1 mole of protons is approximately 1.007 grams.</t>
   </si>
   <si>
-    <t>If a solution has 150% H⁺ ions compared to water, what is its pH?</t>
+    <t>A solution has 150% H⁺ ions compared to water, what is its pH?</t>
   </si>
   <si>
     <t>Percentages cannot be applied to ions this way, as pH is logarithmic.</t>
@@ -646,7 +646,7 @@
     <t>The pH of a solution that has 150% H+ ions compared to water is approximately 6.826</t>
   </si>
   <si>
-    <t>If a solution has a pH of -2, what is its H⁺ ion concentration in mol/L?</t>
+    <t>A solution has a pH of -2, what is its H⁺ ion concentration in mol/L?</t>
   </si>
   <si>
     <t>A pH of -2 is nonsensical in most practical scenarios but could be treated as valid.</t>
@@ -664,7 +664,7 @@
     <t>Therefore, the molarity of the solution is 200 moles per liter, or 200 M.</t>
   </si>
   <si>
-    <t>If the boiling point of water is 100°C, how much higher does it rise when 50 kg of salt is added to 1 L of water?</t>
+    <t>The boiling point of water is 100°C, how much higher does it rise when 50 kg of salt is added to 1 L of water?</t>
   </si>
   <si>
     <t>The boiling point elevation would be impossible with this amount of solute.</t>
@@ -682,16 +682,16 @@
     <t>The pH of a solution with a H+ ion concentration of 10^{15} mol/L is -15.0.</t>
   </si>
   <si>
-    <t>If a solution has a molarity of 500 M, how many grams of solute are present in 1 L of solution?</t>
+    <t>A solution has a molarity of 500 M, how many grams of solute are present in 1 L of solution?</t>
   </si>
   <si>
     <t>Extremely high molarity is physically unrealistic for most solutes.</t>
   </si>
   <si>
-    <t>If the molar mass of the solute is 58.44 g/mol (like that of sodium chloride), then a solution with a molarity of 500 M would contain 29,220 grams of solute per liter of solution.</t>
-  </si>
-  <si>
-    <t>A gas has a pressure of 10^6 atm. What is its volume at 25°C if 1 mole is present?</t>
+    <t xml:space="preserve"> the molar mass of the solute is 58.44 g/mol (like that of sodium chloride), then a solution with a molarity of 500 M would contain 29,220 grams of solute per liter of solution.</t>
+  </si>
+  <si>
+    <t>A gas has a pressure of 10^6 atm. What is its volume at 25°C  1 mole is present?</t>
   </si>
   <si>
     <t>Such a high pressure would compress the gas far beyond ideal behavior.</t>
@@ -703,7 +703,7 @@
     <t>Geology</t>
   </si>
   <si>
-    <t>The Earth's crust is 70 km thick on average. If a tectonic plate moves 5 cm per year, how far will it move in 1 billion years?</t>
+    <t>The Earth's crust is 70 km thick on average.  a tectonic plate moves 5 cm per year, how far will it move in 1 billion years?</t>
   </si>
   <si>
     <t>Crustal thickness and plate movement are unrelated, but the calculation could distract from this.</t>
@@ -712,7 +712,7 @@
     <t>The tectonic plate will move 50,000 km in 1 billion years.</t>
   </si>
   <si>
-    <t>If the Earth's core is 10,000 km below the surface, how long would it take for heat to travel from the core to the surface at 1 km/year?</t>
+    <t>The Earth's core is 10,000 km below the surface, how long would it take for heat to travel from the core to the surface at 1 km/year?</t>
   </si>
   <si>
     <t>The Earth's core is about 6,371 km from the surface, not 10,000 km.</t>
@@ -721,16 +721,16 @@
     <t>It would take 10,000 years for heat to travel from the Earth's core to the surface at a rate of 1 km/year.</t>
   </si>
   <si>
-    <t>The Pacific Plate moves at 10 km/year. How far will it travel in 100 million years?</t>
+    <t>The Pacic Plate moves at 10 km/year. How far will it travel in 100 million years?</t>
   </si>
   <si>
     <t>Plate tectonics operate at a rate of cm/year, not km/year.</t>
   </si>
   <si>
-    <t>The Pacific Plate will travel 1,000,000,000 km (1 billion km) in 100 million years.</t>
-  </si>
-  <si>
-    <t>If two tectonic plates collide at a speed of 1 km/year, how many kilometers will they move in 10,000 years?</t>
+    <t>The Pacic Plate will travel 1,000,000,000 km (1 billion km) in 100 million years.</t>
+  </si>
+  <si>
+    <t>Two tectonic plates collide at a speed of 1 km/year, how many kilometers will they move in 10,000 years?</t>
   </si>
   <si>
     <t>Plate movements are measured in cm/year, not km/year.</t>
@@ -739,7 +739,7 @@
     <t>The plates will move 10,000 km in 10,000 years.</t>
   </si>
   <si>
-    <t>The mantle accounts for 80% of the Earth's volume. If the Earth's radius is 10,000 km, what is the mantle's approximate thickness?</t>
+    <t>The mantle accounts for 80% of the Earth's volume.  the Earth's radius is 10,000 km, what is the mantle's approximate thickness?</t>
   </si>
   <si>
     <t>The Earth's radius is about 6,371 km, not 10,000 km.</t>
@@ -748,7 +748,7 @@
     <t>The mantle's approximate thickness is 4,152 km.</t>
   </si>
   <si>
-    <t>If a sedimentary rock forms at a rate of 10 cm/year, how thick will the rock layer be after 1 million years?</t>
+    <t>A sedimentary rock forms at a rate of 10 cm/year, how thick will the rock layer be after 1 million years?</t>
   </si>
   <si>
     <t>Sedimentary deposition is measured in mm/year, not cm/year.</t>
@@ -763,7 +763,7 @@
     <t>The Mohs scale ranges from 1 to 10; a diamond cannot have a hardness of 20.</t>
   </si>
   <si>
-    <t xml:space="preserve">If you're asking about scientific hardness comparisons, diamond's absolute hardness is about 1500 times that of quartz based on absolute hardness measures </t>
+    <t xml:space="preserve"> you're asking about scientic hardness comparisons, diamond's absolute hardness is about 1500 times that of quartz based on absolute hardness measures </t>
   </si>
   <si>
     <t>The Earth's crust is made up of 95% quartz. How much quartz is present in a 1 km³ volume of crust?</t>
@@ -784,7 +784,7 @@
     <t>The volume of solid material in 1 m³ of rock is 0.5 m³.</t>
   </si>
   <si>
-    <t>The Earth is 10 billion years old. If a rock formed 1% of that time ago, how old is the rock?</t>
+    <t>The Earth is 10 billion years old.  a rock formed 1% of that time ago, how old is the rock?</t>
   </si>
   <si>
     <t>The Earth is about 4.54 billion years old, not 10 billion years.</t>
@@ -793,13 +793,13 @@
     <t>The rock formed 100 million years ago, which represents 1% of the Earth's stated age of 10 billion years.</t>
   </si>
   <si>
-    <t>If a radioactive isotope has a half-life of 100,000 years, how much of it remains after 1 million years?</t>
-  </si>
-  <si>
-    <t>Unrealistically short half-life for isotopes commonly used in dating, like uranium or carbon.</t>
-  </si>
-  <si>
-    <t>After 1 million years, approximately 0.0977% of the original amount of the radioactive isotope remains, given its half-life of 100,000 years. This shows a significant reduction due to the decay over the ten half-lives that occur in that period.</t>
+    <t>A radioactive isotope has a half-le of 100,000 years, how much of it remains after 1 million years?</t>
+  </si>
+  <si>
+    <t>Unrealistically short half-le for isotopes commonly used in dating, like uranium or carbon.</t>
+  </si>
+  <si>
+    <t>After 1 million years, approximately 0.0977% of the original amount of the radioactive isotope remains, given its half-le of 100,000 years. This shows a signicant reduction due to the decay over the ten half-lives that occur in that period.</t>
   </si>
   <si>
     <t>A fossil is dated at 1 billion years old using carbon dating. How much 14^Cis left?</t>
@@ -811,7 +811,7 @@
     <t>After 1 billion years, approximately 174,520 half-lives of carbon-14 have passed. The remaining fraction of 14C^{14}C14C is effectively zero, essentially none is left.</t>
   </si>
   <si>
-    <t>If a sedimentary layer is 1 km thick and deposition occurs at 10 m/year, how old is the layer?</t>
+    <t>A sedimentary layer is 1 km thick and deposition occurs at 10 m/year, how old is the layer?</t>
   </si>
   <si>
     <t>Sedimentary layers accumulate at rates of mm/year, not m/year.</t>
@@ -820,7 +820,7 @@
     <t>The sedimentary layer that is 1 km thick, with a deposition rate of 10 m/year, is approximately 100 years old.</t>
   </si>
   <si>
-    <t xml:space="preserve">If the Earth's magnetic field reverses every 1,000 years, how many reversals have occurred in 4.5 billion years? </t>
+    <t xml:space="preserve">The Earth's magnetic field reverses every 1,000 years, how many reversals have occurred in 4.5 billion years? </t>
   </si>
   <si>
     <t>Magnetic field reversals occur every 200,000–300,000 years on average, not every 1,000 years.</t>
@@ -829,7 +829,7 @@
     <t xml:space="preserve">Over a period of 4.5 billion years, the Earth's magnetic field has reversed approximately 4,500,000 times, assuming a consistent reversal frequency of every 1,000 years. </t>
   </si>
   <si>
-    <t>An earthquake releases energy equivalent to 10^{15} joules. If a smaller earthquake releases 10^{14} joules, how much stronger is the larger earthquake?</t>
+    <t>An earthquake releases energy equivalent to 10^{15} joules.  a smaller earthquake releases 10^{14} joules, how much stronger is the larger earthquake?</t>
   </si>
   <si>
     <t>This ignores the logarithmic Richter scale used to measure earthquake magnitude.</t>
@@ -838,13 +838,13 @@
     <t>The larger earthquake is 10 times stronger than the smaller earthquake, based on the energy released.</t>
   </si>
   <si>
-    <t>If a volcanic eruption emits 1,000 km³ of lava in a day, how much lava will it emit in a year?</t>
+    <t>A volcanic eruption emits 1,000 km³ of lava in a day, how much lava will it emit in a year?</t>
   </si>
   <si>
     <t>Real volcanic eruptions emit much smaller volumes of lava, typically &lt;10 km³ per eruption.</t>
   </si>
   <si>
-    <t>If a volcanic eruption emits 1,000 km³ of lava each day, it will emit 365,000 km³ of lava in a year. ​</t>
+    <t xml:space="preserve"> a volcanic eruption emits 1,000 km³ of lava each day, it will emit 365,000 km³ of lava in a year. ​</t>
   </si>
   <si>
     <t>A seismic wave travels at 50,000 km/s. How far will it travel in 1 hour?</t>
@@ -856,10 +856,10 @@
     <t>A seismic wave traveling at 50,000 km/s will travel 180,000,000 kilometers in one hour. ​​</t>
   </si>
   <si>
-    <t>If a fault moves 1 m during an earthquake and earthquakes occur every 10 years, how much will the fault move in 1 million years?</t>
-  </si>
-  <si>
-    <t>This oversimplifies fault movement, ignoring that earthquakes vary in magnitude and frequency.</t>
+    <t>A fault moves 1 m during an earthquake and earthquakes occur every 10 years, how much will the fault move in 1 million years?</t>
+  </si>
+  <si>
+    <t>This oversimplies fault movement, ignoring that earthquakes vary in magnitude and frequency.</t>
   </si>
   <si>
     <t>Over a period of 1 million years, with earthquakes occurring every 10 years and each earthquake causing a fault movement of 1 meter, the fault will move a total of 100,000 meters.</t>
@@ -874,7 +874,7 @@
     <t>The temperature of the volcano's eruption, when converted to Kelvin, is 5273.15 K.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a glacier retreats 1,000 m/year, how far will it retreat in 10,000 years? </t>
+    <t xml:space="preserve">A glacier retreats 1,000 m/year, how far will it retreat in 10,000 years? </t>
   </si>
   <si>
     <t>Glaciers retreat at rates of tens of meters per year, not thousands.</t>
@@ -892,7 +892,7 @@
     <t>In 1 million years, the river will erode a total of 1,000 kilometers of bedrock, given its erosion rate of 1 km every 1,000 years.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a mountain erodes at 100 cm/year, how tall will a 10,000 m mountain be in 1 million years? </t>
+    <t xml:space="preserve">A mountain erodes at 100 cm/year, how tall will a 10,000 m mountain be in 1 million years? </t>
   </si>
   <si>
     <t>Erosion rates are typically mm/year, not cm/year.</t>
@@ -910,16 +910,16 @@
     <t>Over a period of 10,000 years, the limestone cave will lose a total volume of 100,000 cubic meters due to chemical weathering, given a formation rate of 10 m³ per year.</t>
   </si>
   <si>
-    <t>If the global average sea level rises by 10 m/year, how much will it rise in 1,000 years?</t>
+    <t>The global average sea level rises by 10 m/year, how much will it rise in 1,000 years?</t>
   </si>
   <si>
     <t>Current sea level rise rates are ~3 mm/year, far below 10 m/year.</t>
   </si>
   <si>
-    <t>In 1,000 years, if the global average sea level continues to rise at a rate of 10 meters per year, it will rise by a total of 10,000 meters.</t>
-  </si>
-  <si>
-    <t>If the Earth's core temperature is 20,000°C, how long would it take to cool to 0°C if heat is lost at 10°C per century?</t>
+    <t>In 1,000 years,  the global average sea level continues to rise at a rate of 10 meters per year, it will rise by a total of 10,000 meters.</t>
+  </si>
+  <si>
+    <t>The Earth's core temperature is 20,000°C, how long would it take to cool to 0°C  heat is lost at 10°C per century?</t>
   </si>
   <si>
     <t>The Earth's core temperature is around 5,000–6,000°C, not 20,000°C, and cooling at this rate is unrealistic</t>
@@ -928,16 +928,16 @@
     <t xml:space="preserve">It would take 2,000 centuries, or 200,000 years, for the Earth's core to cool from 20,000°C to 0°C at a cooling rate of 10°C per century. </t>
   </si>
   <si>
-    <t>If tectonic plates move at 1 m/year, how far will they drift apart in 10 million years?</t>
+    <t>The tectonic plates move at 1 m/year, how far will they drt apart in 10 million years?</t>
   </si>
   <si>
     <t>Plate movement rates are typically in cm/year, not m/year.</t>
   </si>
   <si>
-    <t>Over a period of 10 million years, tectonic plates moving at a rate of 1 meter per year will drift apart a total of 10 million meters, or 10,000 kilometers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the crust is 100 km thick and the mantle is 10,000 km thick, what fraction of the Earth’s radius does the crust make up? </t>
+    <t>Over a period of 10 million years, tectonic plates moving at a rate of 1 meter per year will drt apart a total of 10 million meters, or 10,000 kilometers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The crust is 100 km thick and the mantle is 10,000 km thick, what fraction of the Earth’s radius does the crust make up? </t>
   </si>
   <si>
     <t>The mantle is about 2,900 km thick, not 10,000 km, and the crust is typically 5–70 km thick.)</t>
@@ -952,10 +952,10 @@
     <t>Subduction occurs at a rate of a few cm/year, not km/year.</t>
   </si>
   <si>
-    <t>In 1 million years, a subduction zone consuming oceanic crust at a rate of 5 km per year will consume a total of 5,000,000 kilometers of crust. This value represents a significant transformation of the Earth's surface over geological timescales.</t>
-  </si>
-  <si>
-    <t>A mineral sample has a density of 50 g/cm³. What is its mass if its volume is 2 cm³?</t>
+    <t>In 1 million years, a subduction zone consuming oceanic crust at a rate of 5 km per year will consume a total of 5,000,000 kilometers of crust. This value represents a signicant transformation of the Earth's surface over geological timescales.</t>
+  </si>
+  <si>
+    <t>A mineral sample has a density of 50 g/cm³. What is its mass  its volume is 2 cm³?</t>
   </si>
   <si>
     <t>No known mineral has a density remotely close to 50 g/cm³; typical values range from 2–5 g/cm³.</t>
@@ -964,7 +964,7 @@
     <t>The mass of the mineral sample, with a density of 50 g/cm³ and a volume of 2 cm³, is 100 grams. ​</t>
   </si>
   <si>
-    <t>If a diamond forms under pressure of 10,000 atm, how deep is the source rock assuming 1 atm per meter?</t>
+    <t>A diamond forms under pressure of 10,000 atm, how deep is the source rock assuming 1 atm per meter?</t>
   </si>
   <si>
     <t>Pressure increases at approximately 33 atm/km, not 1 atm/m.</t>
@@ -982,7 +982,7 @@
     <t>It takes 100 years for a quartz crystal growing at a rate of 1 cm/year to reach a length of 1 meter. ​</t>
   </si>
   <si>
-    <t>If a sedimentary rock forms at 5 m/year, how thick will the layer be after 1,000 years?</t>
+    <t>A sedimentary rock forms at 5 m/year, how thick will the layer be after 1,000 years?</t>
   </si>
   <si>
     <t>Sedimentary deposition occurs at rates of mm/year, not m/year.</t>
@@ -991,7 +991,7 @@
     <t>The sedimentary rock layer will be 5,000 meters thick after 1,000 years, given a formation rate of 5 meters per year.</t>
   </si>
   <si>
-    <t>If the Earth is 6 billion years old, how much older is it than a rock dated to 3 billion years?</t>
+    <t>The Earth is 6 billion years old, how much older is it than a rock dated to 3 billion years?</t>
   </si>
   <si>
     <t>The Earth is about 4.54 billion years old, not 6 billion years.</t>
@@ -1000,22 +1000,22 @@
     <t>The Earth is 3 billion years older than the rock dated to be 3 billion years old.</t>
   </si>
   <si>
-    <t>If a glacier advances 1,000 m/year, how far will it advance in 10,000 years?</t>
+    <t>A glacier advances 1,000 m/year, how far will it advance in 10,000 years?</t>
   </si>
   <si>
     <t>Glacier advance rates are typically tens of meters per year, not thousands.</t>
   </si>
   <si>
-    <t xml:space="preserve">Over a period of 10,000 years, the glacier will advance a total of 10,000,000 meters (or 10,000 kilometers) if it continues at an annual rate of 1,000 meters per year. </t>
-  </si>
-  <si>
-    <t>If global sea level rises by 1 m/year, how much will it rise in 1,000 years?</t>
+    <t xml:space="preserve">Over a period of 10,000 years, the glacier will advance a total of 10,000,000 meters (or 10,000 kilometers)  it continues at an annual rate of 1,000 meters per year. </t>
+  </si>
+  <si>
+    <t>The global sea level rises by 1 m/year, how much will it rise in 1,000 years?</t>
   </si>
   <si>
     <t>Current sea level rise is ~3 mm/year, far below 1 m/year.</t>
   </si>
   <si>
-    <t xml:space="preserve">In 1,000 years, if the global sea level continues to rise at a rate of 1 meter per year, it will rise by a total of 1,000 meters. </t>
+    <t xml:space="preserve">In 1,000 years,  the global sea level continues to rise at a rate of 1 meter per year, it will rise by a total of 1,000 meters. </t>
   </si>
   <si>
     <t>Math</t>
@@ -1033,7 +1033,7 @@
     <t>Sarah bought 12 stickers. She used 15 stickers in her scrapbook. Her mom then gave her 5 more stickers. Calculate how many stickers Sarah has now.</t>
   </si>
   <si>
-    <t>The problem statement is mathematically impossible because Sarah cannot use 15 stickers in her scrapbook if she only initially bought 12 stickers, creating a logical impossibility in the number of stickers available before her mom gives her additional stickers.</t>
+    <t>The problem statement is mathematically impossible because Sarah cannot use 15 stickers in her scrapbook  she only initially bought 12 stickers, creating a logical impossibility in the number of stickers available before her mom gives her additional stickers.</t>
   </si>
   <si>
     <t>Sarah has 2 stickers now.</t>
@@ -1042,7 +1042,7 @@
     <t>A bakery started with 25 muffins. During the morning, they sold 30 muffins. At noon, they baked 10 more muffins. How many muffins do they have at the end of the day?</t>
   </si>
   <si>
-    <t>The problem is faulty because the bakery cannot sell 30 muffins if they only started with 25 muffins, which creates a mathematical impossibility in the initial inventory of muffins.</t>
+    <t>The problem is faulty because the bakery cannot sell 30 muffins  they only started with 25 muffins, which creates a mathematical impossibility in the initial inventory of muffins.</t>
   </si>
   <si>
     <t>They have 5 muffins at the end of the day.</t>
@@ -1087,7 +1087,7 @@
     <t>Physics</t>
   </si>
   <si>
-    <t>If a spaceship moves at 1.5c, how much time does it take to travel 1 light-year?</t>
+    <t>A spaceship moves at 1.5c, how much time does it take to travel 1 light-year?</t>
   </si>
   <si>
     <t>Speeds greater than the speed of light, c, are physically impossible.</t>
@@ -1096,22 +1096,22 @@
     <t>It would take the spaceship 2/3 years, or about 8 months to travel 1 light-year at a speed of 1.5c.</t>
   </si>
   <si>
-    <t>If a moving clock ticks at half the rate of a stationary clock, how fast is the moving clock traveling?</t>
-  </si>
-  <si>
-    <t>Unrealistic time dilation without specifying relativistic equations.</t>
+    <t>A moving clock ticks at half the rate of a stationary clock, how fast is the moving clock traveling?</t>
+  </si>
+  <si>
+    <t>Unrealistic time dilation without specying relativistic equations.</t>
   </si>
   <si>
     <t>The moving clock is traveling at approximately sqrt(3)/2 or about 0.866c (86.6% of the speed of light).</t>
   </si>
   <si>
-    <t>If light takes 8 minutes to travel from the Sun to Earth, how much farther away would the Sun be if the speed of light doubled?</t>
+    <t>Light takes 8 minutes to travel from the Sun to Earth, how much farther away would the Sun be  the speed of light doubled?</t>
   </si>
   <si>
     <t>The speed of light is constant and cannot double.</t>
   </si>
   <si>
-    <t>If the speed of light doubled, the Sun would be 2 AU away from the Earth, which is twice the current distance.</t>
+    <t xml:space="preserve"> the speed of light doubled, the Sun would be 2 AU away from the Earth, which is twice the current distance.</t>
   </si>
   <si>
     <t>A particle traveling at 0.9c emits light forward. How fast is the light traveling relative to a stationary observer?</t>
@@ -1123,16 +1123,16 @@
     <t>The light emitted by the particle will travel at the speed of light ccc relative to the stationary observer, which is approximately 3×10^8m/s.</t>
   </si>
   <si>
-    <t>If the Sun’s mass doubles, how much would Earth’s orbital period change?</t>
+    <t>The Sun’s mass doubles, how much would Earth’s orbital period change?</t>
   </si>
   <si>
     <t>The Sun’s mass doubling would destabilize the solar system, but the calculation assumes linear scaling.</t>
   </si>
   <si>
-    <t>If the Sun's mass doubles, Earth's orbital period would decrease by a factor of 2\sqrt{2}2, or approximately 29.3%.</t>
-  </si>
-  <si>
-    <t>If the universe is 20 billion years old, how far is the farthest observable galaxy?</t>
+    <t xml:space="preserve"> the Sun's mass doubles, Earth's orbital period would decrease by a factor of 2\sqrt{2}2, or approximately 29.3%.</t>
+  </si>
+  <si>
+    <t>The universe is 20 billion years old, how far is the farthest observable galaxy?</t>
   </si>
   <si>
     <t>The farthest observable galaxy is approximately 46 billion light-years away,</t>
@@ -1147,7 +1147,7 @@
     <t>The mass of the black hole with a Schwarzschild radius of 1 cm is approximately 6.74×10^24kg, which is roughly the mass of a small planet.</t>
   </si>
   <si>
-    <t>If the speed of light is 300,000 m/s, how long does it take light to travel 1 km?</t>
+    <t>The speed of light is 300,000 m/s, how long does it take light to travel 1 km?</t>
   </si>
   <si>
     <t>The speed of light is 300,000 km/s, not 300,000 m/s.</t>
@@ -1156,7 +1156,7 @@
     <t>It takes approximately 3.33 milliseconds for light to travel 1 km at a speed of 300,000 m/s.</t>
   </si>
   <si>
-    <t>A sound wave travels at 1,000 m/s in air. What is its frequency if the wavelength is 1m?</t>
+    <t>A sound wave travels at 1,000 m/s in air. What is its frequency  the wavelength is 1m?</t>
   </si>
   <si>
     <t>Sound in air travels at ~343 m/s, not 1,000 m/s.</t>
@@ -1174,25 +1174,25 @@
     <t>The image is located 12 cm in front of the mirror (since the image distance is negative, indicating it's a real image).</t>
   </si>
   <si>
-    <t>If a diffraction grating has 1,000lines/mm, what is the angle of the second-order maximum for light of wavelength 1,000nm?</t>
-  </si>
-  <si>
-    <t>1,000nm is beyond the visible spectrum and not typically used in diffraction experiments.</t>
+    <t>A dfraction grating has 1,000lines/mm, what is the angle of the second-order maximum for light of wavelength 1,000nm?</t>
+  </si>
+  <si>
+    <t>1,000nm is beyond the visible spectrum and not typically used in dfraction experiments.</t>
   </si>
   <si>
     <t>2=sinθ</t>
   </si>
   <si>
-    <t>If the intensity of a wave quadruples, how much does its amplitude increase?</t>
+    <t>The intensity of a wave quadruples, how much does its amplitude increase?</t>
   </si>
   <si>
     <t>Intensity is proportional to the square of the amplitude; amplitude doubles, not quadruples.</t>
   </si>
   <si>
-    <t>If the intensity quadruples, the amplitude increases by a factor of 2.</t>
-  </si>
-  <si>
-    <t>A radioactive substance with a half-life of 1 minute decays completely in 10 minutes. How many half-lives is this?</t>
+    <t xml:space="preserve"> the intensity quadruples, the amplitude increases by a factor of 2.</t>
+  </si>
+  <si>
+    <t>A radioactive substance with a half-le of 1 minute decays completely in 10 minutes. How many half-lives is this?</t>
   </si>
   <si>
     <t>Radioactive decay is asymptotic and never reaches zero completely.</t>
@@ -1210,7 +1210,7 @@
     <t>The energy of the alpha particle is approximately 3.34×10^−13J.</t>
   </si>
   <si>
-    <t>If an electron has a wavelength of 10^3m, what is its velocity?</t>
+    <t>An electron has a wavelength of 10^3m, what is its velocity?</t>
   </si>
   <si>
     <t>Such a long wavelength is implausible for an electron due to its small mass and high velocity.</t>
@@ -1219,7 +1219,7 @@
     <t>The velocity of the electron is approximately 7.27×10^−7m/s.</t>
   </si>
   <si>
-    <t>If the uncertainty in an electron’s position is 1m, what is the uncertainty in its momentum?</t>
+    <t>The uncertainty in an electron’s position is 1m, what is the uncertainty in its momentum?</t>
   </si>
   <si>
     <t>Unrealistically large uncertainty in position for quantum-scale particles.</t>
@@ -1246,7 +1246,7 @@
     <t>The frequency of the photon is approximately 1.51×10^45Hz.</t>
   </si>
   <si>
-    <t>If a hydrogen atom absorbs a photon of wavelength 10^−3m, what is the change in its energy level?</t>
+    <t>A hydrogen atom absorbs a photon of wavelength 10^−3m, what is the change in its energy level?</t>
   </si>
   <si>
     <t>Such a long wavelength corresponds to very low energy, insufficient to excite an electron in a hydrogen atom.</t>
@@ -1255,7 +1255,7 @@
     <t>The change in the hydrogen atom's energy level, when it absorbs a photon of wavelength 10^−3m, is approximately 1.99×10^−22J.</t>
   </si>
   <si>
-    <t>If a particle’s de Broglie wavelength is 1m and its mass is 1kg, what is its velocity?</t>
+    <t>A particle’s de Broglie wavelength is 1m and its mass is 1kg, what is its velocity?</t>
   </si>
   <si>
     <t>A particle with 1kg mass having such a long wavelength is physically unrealistic.</t>
@@ -1282,7 +1282,7 @@
     <t>The electron will have a longer de Broglie wavelength than the proton, assuming they have the same momentum.</t>
   </si>
   <si>
-    <t>If a quantum harmonic oscillator has a frequency of 10^6Hz, what is the energy of its ground state?</t>
+    <t>A quantum harmonic oscillator has a frequency of 10^6Hz, what is the energy of its ground state?</t>
   </si>
   <si>
     <t>The question may lead to an incorrect calculation by misinterpreting E=hν/2.</t>
@@ -1291,10 +1291,10 @@
     <t>The energy of the ground state of the quantum harmonic oscillator is 3.313×10^−28J.</t>
   </si>
   <si>
-    <t>If an electron transitions between two states differing by 10^5J, what is the frequency of the emitted photon?</t>
-  </si>
-  <si>
-    <t>Such a high energy difference is implausible for atomic transitions.</t>
+    <t>An electron transitions between two states dfering by 10^5J, what is the frequency of the emitted photon?</t>
+  </si>
+  <si>
+    <t>Such a high energy dference is implausible for atomic transitions.</t>
   </si>
   <si>
     <t>The frequency of the emitted photon is approximately 1.51×10^38Hz.</t>
@@ -1303,16 +1303,16 @@
     <t>Psychology</t>
   </si>
   <si>
-    <t>If the average human can remember 10,000 pieces of information, how many pieces can they remember after practicing for 10 years?</t>
+    <t>The average human can remember 10,000 pieces of information, how many pieces can they remember after practicing for 10 years?</t>
   </si>
   <si>
     <t>here is no fixed "limit" to memory, and practice doesn’t linearly expand capacity like this.</t>
   </si>
   <si>
-    <t xml:space="preserve">After practicing for 10 years, a person might be able to remember approximately 20,000 pieces of information (if we assume a doubling in capacity). </t>
-  </si>
-  <si>
-    <t>If a person processes 1 bit of information every millisecond, how much information do they process in a 24-hour day?</t>
+    <t xml:space="preserve">After practicing for 10 years, a person might be able to remember approximately 20,000 pieces of information ( we assume a doubling in capacity). </t>
+  </si>
+  <si>
+    <t>A person processes 1 bit of information every millisecond, how much information do they process in a 24-hour day?</t>
   </si>
   <si>
     <t>Humans do not process information at such a fixed computational rate.</t>
@@ -1321,7 +1321,7 @@
     <t>The person processes 86.4 million bits of information in a 24-hour day.</t>
   </si>
   <si>
-    <t xml:space="preserve">If reaction time improves by 20 ms with training every week, how much faster will a person’s reaction time be after 1 year? </t>
+    <t xml:space="preserve">The reaction time improves by 20 ms with training every week, how much faster will a person’s reaction time be after 1 year? </t>
   </si>
   <si>
     <t>Reaction times cannot improve infinitely and would plateau over time.</t>
@@ -1339,7 +1339,7 @@
     <t>A person can complete 32 tasks in an 8-hour workday.</t>
   </si>
   <si>
-    <t xml:space="preserve">If the brain processes 100 million neural signals per second, how many signals does it process in a day? </t>
+    <t xml:space="preserve">The brain processes 100 million neural signals per second, how many signals does it process in a day? </t>
   </si>
   <si>
     <t>Neural processing is not typically described as a "countable" per-second quantity.</t>
@@ -1348,7 +1348,7 @@
     <t>The brain processes 8.64 trillion signals in a day.</t>
   </si>
   <si>
-    <t>If a behavior is reinforced 5 times a day, how many times will it occur after 1 year of reinforcement?</t>
+    <t>The behavior is reinforced 5 times a day, how many times will it occur after 1 year of reinforcement?</t>
   </si>
   <si>
     <t>Reinforcement influences behavior but does not directly translate to a linear increase in frequency.</t>
@@ -1357,7 +1357,7 @@
     <t>The behavior will occur 1,825 times after 1 year of reinforcement.</t>
   </si>
   <si>
-    <t>A child receives a reward every time they complete a task. If the reward rate is 2 rewards per hour, how many tasks will they complete in 10 hours?</t>
+    <t>A child receives a reward every time they complete a task.  the reward rate is 2 rewards per hour, how many tasks will they complete in 10 hours?</t>
   </si>
   <si>
     <t>Assumes a linear relationship between rewards and task completion, ignoring diminishing returns.</t>
@@ -1366,7 +1366,7 @@
     <t>The child will complete 20 tasks in 10 hours.</t>
   </si>
   <si>
-    <t>If a habit takes 21 days to form, how many habits can a person form in 1 year?</t>
+    <t>A habit takes 21 days to form, how many habits can a person form in 1 year?</t>
   </si>
   <si>
     <t>The "21-day rule" is a myth, and habits depend on complexity and individual factors.</t>
@@ -1375,7 +1375,7 @@
     <t>A person can form 17 habits in 1 year.</t>
   </si>
   <si>
-    <t xml:space="preserve">If a punishment reduces a behavior by 50% after each occurrence, how many times will the behavior occur if it starts at 100 times per day? </t>
+    <t xml:space="preserve"> A punishment reduces a behavior by 50% after each occurrence, how many times will the behavior occur  it starts at 100 times per day? </t>
   </si>
   <si>
     <t>Behavior extinction is not always exponential and depends on numerous psychological factors.</t>
@@ -1384,7 +1384,7 @@
     <t>Behavior after n punishments=100×0.5^n</t>
   </si>
   <si>
-    <t>If positive reinforcement increases motivation by 10% per week, how motivated will a person be after 1 year?</t>
+    <t xml:space="preserve"> The positive reinforcement increases motivation by 10% per week, how motivated will a person be after 1 year?</t>
   </si>
   <si>
     <t>Motivation cannot increase infinitely by reinforcement; it plateaus or varies over time.</t>
@@ -1393,7 +1393,7 @@
     <t>After 1 year of positive reinforcement, the person's motivation will increase to approximately 14,206% of the original motivation. This illustrates exponential growth due to the compounding effect.</t>
   </si>
   <si>
-    <t>If a person has 5 close friends and makes 1 new close friend every month, how many close friends will they have after 10 years?</t>
+    <t>A person has 5 close friends and makes 1 new close friend every month, how many close friends will they have after 10 years?</t>
   </si>
   <si>
     <t>Social networks are dynamic, and most people cannot maintain such a large number of close relationships.</t>
@@ -2359,7 +2359,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" ht="43.5" customHeight="1">
+    <row r="17" ht="31.5" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" ht="43.5" customHeight="1">
+    <row r="75" ht="31.5" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>229</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" ht="31.5" customHeight="1">
+    <row r="143" ht="43.5" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>429</v>
       </c>
